--- a/FileShare/results/InprecisionTracing.SDQ.Lenovo.nonEclipse.Sun1.5and1.6.-server.-Xint.xlsx
+++ b/FileShare/results/InprecisionTracing.SDQ.Lenovo.nonEclipse.Sun1.5and1.6.-server.-Xint.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Input size</t>
   </si>
@@ -299,6 +299,12 @@
   </si>
   <si>
     <t>SDQ LENOVO</t>
+  </si>
+  <si>
+    <t>largest factor difference:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">largest factor difference in all but one (red) case: </t>
   </si>
 </sst>
 </file>
@@ -921,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1007,19 +1013,19 @@
         <v>1.8181923046480066</v>
       </c>
       <c r="I2" s="29">
-        <f>G2/$H$13</f>
+        <f t="shared" ref="I2:I11" si="1">G2/$H$13</f>
         <v>937588376.94212759</v>
       </c>
       <c r="J2" s="30">
-        <f t="shared" ref="J2:J11" si="1">I2/F2</f>
+        <f t="shared" ref="J2:J11" si="2">I2/F2</f>
         <v>1.065053049349632</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K11" si="2">E2/D2</f>
+        <f t="shared" ref="K2:K11" si="3">E2/D2</f>
         <v>0.91894518877338416</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L11" si="3">F2/D2</f>
+        <f t="shared" ref="L2:L11" si="4">F2/D2</f>
         <v>1.8587003808149041</v>
       </c>
     </row>
@@ -1050,19 +1056,19 @@
         <v>1.7460228384235905</v>
       </c>
       <c r="I3" s="35">
-        <f>G3/$H$13</f>
+        <f t="shared" si="1"/>
         <v>1000638823.6501728</v>
       </c>
       <c r="J3" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0227779226340723</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.77666420401577163</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6358899953122623</v>
       </c>
     </row>
@@ -1093,19 +1099,19 @@
         <v>1.3945272455015678</v>
       </c>
       <c r="I4" s="35">
-        <f>G4/$H$13</f>
+        <f t="shared" si="1"/>
         <v>1201167972.9700255</v>
       </c>
       <c r="J4" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.81688031096915459</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.59280129566987916</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5634374121220971</v>
       </c>
     </row>
@@ -1136,19 +1142,19 @@
         <v>1.8087668512630324</v>
       </c>
       <c r="I5" s="35">
-        <f>G5/$H$13</f>
+        <f t="shared" si="1"/>
         <v>1100204097.9901226</v>
       </c>
       <c r="J5" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0595318468654353</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.90568925254497601</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8415449748411996</v>
       </c>
     </row>
@@ -1179,19 +1185,19 @@
         <v>1.7908082755089156</v>
       </c>
       <c r="I6" s="35">
-        <f>G6/$H$13</f>
+        <f t="shared" si="1"/>
         <v>1257981415.2093825</v>
       </c>
       <c r="J6" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.049012147810499</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.90478648407534457</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8582391195365715</v>
       </c>
     </row>
@@ -1222,19 +1228,19 @@
         <v>1.7788268188881142</v>
       </c>
       <c r="I7" s="35">
-        <f>G7/$H$13</f>
+        <f t="shared" si="1"/>
         <v>1430576343.0558133</v>
       </c>
       <c r="J7" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0419937004894906</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.84442233484795592</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7460091521622436</v>
       </c>
     </row>
@@ -1265,19 +1271,19 @@
         <v>1.7519566844712837</v>
       </c>
       <c r="I8" s="35">
-        <f>G8/$H$13</f>
+        <f t="shared" si="1"/>
         <v>1422449337.0732198</v>
       </c>
       <c r="J8" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0262538260417102</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.85533746761489982</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7957006631970247</v>
       </c>
     </row>
@@ -1308,19 +1314,19 @@
         <v>1.6349289874251214</v>
       </c>
       <c r="I9" s="35">
-        <f>G9/$H$13</f>
+        <f t="shared" si="1"/>
         <v>1172326551.1448257</v>
       </c>
       <c r="J9" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95770183334063552</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9193622324768953</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0681533231636697</v>
       </c>
     </row>
@@ -1351,19 +1357,19 @@
         <v>1.6829544071068241</v>
       </c>
       <c r="I10" s="35">
-        <f>G10/$H$13</f>
+        <f t="shared" si="1"/>
         <v>1456847362.5174987</v>
       </c>
       <c r="J10" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98583396191005868</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.84599744436580482</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8489248561934193</v>
       </c>
     </row>
@@ -1394,19 +1400,19 @@
         <v>1.6643934468454886</v>
       </c>
       <c r="I11" s="35">
-        <f>G11/$H$13</f>
+        <f t="shared" si="1"/>
         <v>1518272408.4976461</v>
       </c>
       <c r="J11" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97496140058931346</v>
       </c>
       <c r="K11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.7287493056971146</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6104576798869414</v>
       </c>
     </row>
@@ -1442,6 +1448,28 @@
     <row r="18" spans="8:8">
       <c r="H18" s="22" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" ht="30">
+      <c r="H20" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8">
+      <c r="H21" s="22">
+        <f>H2/H4</f>
+        <v>1.3038055086503955</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" ht="60">
+      <c r="H23" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8">
+      <c r="H24" s="22">
+        <f>H2/H9</f>
+        <v>1.1120925242823603</v>
       </c>
     </row>
   </sheetData>
